--- a/report/No4_テスト結果.xlsx
+++ b/report/No4_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="652" firstSheet="5" activeTab="29"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="652" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>2023/08/10作成</t>
   </si>
@@ -283,6 +283,17 @@
   </si>
   <si>
     <t>運用終了日を何も入力せず決定ボタンをクリック</t>
+  </si>
+  <si>
+    <t>H2consoleデータベースのCHARGEテーブルの料金名、月額料金、運用開始日、運用終了日の列に値が保存されていない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H2consoleデータベースのCHARGEテーブルの料金名、月額料金、運用開始日、運用終了日の列に値が保存されている</t>
+  </si>
+  <si>
+    <t>H2consoleデータベースのCHARGEテーブルの料金名、月額料金、運用開始日、運用終了日の列に値が保存されている</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -445,6 +456,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>93272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="1028700"/>
+          <a:ext cx="10058400" cy="4550972"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -576,6 +631,50 @@
         <a:xfrm>
           <a:off x="8915400" y="1028700"/>
           <a:ext cx="6864570" cy="4286250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>93272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="5829300"/>
+          <a:ext cx="10058400" cy="4550972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3261,6 +3360,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>93272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="1028700"/>
+          <a:ext cx="10058400" cy="4550972"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3309,6 +3452,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>93272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="1028700"/>
+          <a:ext cx="10058400" cy="4550972"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3349,6 +3536,50 @@
         <a:xfrm>
           <a:off x="1371600" y="1028700"/>
           <a:ext cx="6864570" cy="4810125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>93272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="1028700"/>
+          <a:ext cx="10058400" cy="4550972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3680,27 +3911,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3744,10 +3978,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3769,6 +4003,11 @@
       </c>
       <c r="N5" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N33" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4289,7 +4528,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4312,7 +4551,7 @@
     </row>
     <row r="33" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M33" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4467,7 +4706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="X61" sqref="X61"/>
     </sheetView>
   </sheetViews>
@@ -4596,27 +4835,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4628,27 +4870,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4660,27 +4905,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4697,15 +4945,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -4863,6 +5102,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
@@ -4880,14 +5128,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4903,4 +5143,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/report/No4_テスト結果.xlsx
+++ b/report/No4_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="652" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="652"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -500,1026 +500,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6570</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="7509"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1028700"/>
-          <a:ext cx="6864570" cy="4810125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="17687"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1028700"/>
-          <a:ext cx="6858000" cy="4276725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>6570</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="17583"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="1028700"/>
-          <a:ext cx="6864570" cy="4286250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>93272</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="5829300"/>
-          <a:ext cx="10058400" cy="4550972"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1187</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="13945"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="685800"/>
-          <a:ext cx="6859187" cy="4467225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="14351"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229600" y="685800"/>
-          <a:ext cx="6877050" cy="4457700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>17903</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="14312"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8239126" y="5657850"/>
-          <a:ext cx="6866377" cy="4448175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="11151"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="685801"/>
-          <a:ext cx="6877050" cy="4629150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="10537"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229600" y="685801"/>
-          <a:ext cx="6858000" cy="4648200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="10473"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229600" y="5829300"/>
-          <a:ext cx="6867525" cy="4648200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19142</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="10603"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="685800"/>
-          <a:ext cx="6877142" cy="4657725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="10844"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229600" y="685800"/>
-          <a:ext cx="6867525" cy="4638675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="10533"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229601" y="5829300"/>
-          <a:ext cx="6858000" cy="4638675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>680383</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="11293"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="685800"/>
-          <a:ext cx="6852583" cy="4638675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="11181"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229600" y="685801"/>
-          <a:ext cx="6858000" cy="4648200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>5304</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="9926"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8239125" y="5819775"/>
-          <a:ext cx="6853779" cy="4667250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>680869</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1028700"/>
-          <a:ext cx="4795669" cy="2476500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6570</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="14652"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="3600450"/>
-          <a:ext cx="6864570" cy="4438650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="11211"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="685800"/>
-          <a:ext cx="6867525" cy="4619625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="17743"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915401" y="5829300"/>
-          <a:ext cx="6877050" cy="4276725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="10810"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1028701"/>
-          <a:ext cx="6858000" cy="4629150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="10810"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="1028701"/>
-          <a:ext cx="6858000" cy="4629150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="2943225"/>
-          <a:ext cx="1352550" cy="1009650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+          <a:off x="10210800" y="3228975"/>
+          <a:ext cx="8391525" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1553,6 +563,1236 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="7509"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1028700"/>
+          <a:ext cx="6864570" cy="4810125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="17687"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1028700"/>
+          <a:ext cx="6858000" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="17583"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="1028700"/>
+          <a:ext cx="6864570" cy="4286250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>93272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="5829300"/>
+          <a:ext cx="10058400" cy="4550972"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10220325" y="8020050"/>
+          <a:ext cx="8391525" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1187</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="13945"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="685800"/>
+          <a:ext cx="6859187" cy="4467225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="14351"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="685800"/>
+          <a:ext cx="6877050" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>17903</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="14312"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239126" y="5657850"/>
+          <a:ext cx="6866377" cy="4448175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="11151"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="685801"/>
+          <a:ext cx="6877050" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="10537"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="685801"/>
+          <a:ext cx="6858000" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="10473"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="5829300"/>
+          <a:ext cx="6867525" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19142</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="10603"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="685800"/>
+          <a:ext cx="6877142" cy="4657725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="10844"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="685800"/>
+          <a:ext cx="6867525" cy="4638675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="10533"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229601" y="5829300"/>
+          <a:ext cx="6858000" cy="4638675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9629775" y="8505826"/>
+          <a:ext cx="4886326" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>680383</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="11293"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="685800"/>
+          <a:ext cx="6852583" cy="4638675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="11181"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="685801"/>
+          <a:ext cx="6858000" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5304</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="9926"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="5819775"/>
+          <a:ext cx="6853779" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>680869</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1028700"/>
+          <a:ext cx="4795669" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="14652"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="3600450"/>
+          <a:ext cx="6864570" cy="4438650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="11211"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="685800"/>
+          <a:ext cx="6867525" cy="4619625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="17743"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915401" y="5829300"/>
+          <a:ext cx="6877050" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10487025" y="8658225"/>
+          <a:ext cx="4886326" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="10810"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1028701"/>
+          <a:ext cx="6858000" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="10810"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="1028701"/>
+          <a:ext cx="6858000" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="2943225"/>
+          <a:ext cx="1352550" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1684,6 +1924,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="8801101"/>
+          <a:ext cx="4886326" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2134,6 +2434,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="9153525"/>
+          <a:ext cx="4886326" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2316,6 +2676,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="8820150"/>
+          <a:ext cx="4886326" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2450,6 +2870,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="8810625"/>
+          <a:ext cx="4886326" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2852,6 +3332,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744075" y="8829676"/>
+          <a:ext cx="4886326" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3168,6 +3708,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="8801100"/>
+          <a:ext cx="4886326" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3404,6 +4004,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="3238500"/>
+          <a:ext cx="8391525" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3454,6 +4114,158 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>93272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="1028700"/>
+          <a:ext cx="10058400" cy="4550972"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="3228975"/>
+          <a:ext cx="8391525" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="7509"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1028700"/>
+          <a:ext cx="6864570" cy="4810125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -3496,96 +4308,64 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6570</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="7509"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1028700"/>
-          <a:ext cx="6864570" cy="4810125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>93272</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="1028700"/>
-          <a:ext cx="10058400" cy="4550972"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="3228975"/>
+          <a:ext cx="8391525" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3880,7 +4660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3913,8 +4693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3980,8 +4760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4021,7 +4801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
@@ -4059,7 +4839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
@@ -4094,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Y60" sqref="Y60"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4129,7 +4909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
@@ -4167,8 +4947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y59" sqref="Y59"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4207,7 +4987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -4242,8 +5022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="U69" sqref="U69"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4309,7 +5089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="W61" sqref="W61"/>
     </sheetView>
   </sheetViews>
@@ -4347,7 +5127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="W61" sqref="W61"/>
     </sheetView>
   </sheetViews>
@@ -4385,7 +5165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="Z65" sqref="Z65"/>
     </sheetView>
   </sheetViews>
@@ -4457,7 +5237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="W61" sqref="W60:W61"/>
     </sheetView>
   </sheetViews>
@@ -4492,7 +5272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
@@ -4527,7 +5307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -4565,7 +5345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>
@@ -4603,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67:P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4638,7 +5418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -4706,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="X61" sqref="X61"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="X53" sqref="X53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4837,7 +5617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -4872,7 +5652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -4907,8 +5687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
